--- a/ログ一覧.xlsx
+++ b/ログ一覧.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">項番</t>
   </si>
   <si>
-    <t xml:space="preserve">ログID</t>
+    <t xml:space="preserve">ログメッセージID</t>
   </si>
   <si>
     <t xml:space="preserve">ログメッセージ</t>
@@ -498,14 +498,14 @@
   <dimension ref="B2:D52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="20.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="209.12"/>
   </cols>
   <sheetData>
